--- a/Análises Esportivas/ciclos de Netuno/11 - editável_ciclos.xlsx
+++ b/Análises Esportivas/ciclos de Netuno/11 - editável_ciclos.xlsx
@@ -1361,7 +1361,7 @@
       </c>
       <c r="C8" s="28" t="n">
         <f aca="false">'Ciclo 1'!N5</f>
-        <v>4.18</v>
+        <v>4.29</v>
       </c>
       <c r="D8" s="29" t="n">
         <f aca="false">'Ciclo 2'!N5</f>
@@ -1395,23 +1395,23 @@
       </c>
       <c r="C9" s="24" t="n">
         <f aca="false">C8</f>
-        <v>4.18</v>
+        <v>4.29</v>
       </c>
       <c r="D9" s="25" t="n">
         <f aca="false">C10+D8</f>
-        <v>4.18</v>
+        <v>4.29</v>
       </c>
       <c r="E9" s="26" t="n">
         <f aca="false">C10+D10+E8</f>
-        <v>5.68</v>
+        <v>5.79</v>
       </c>
       <c r="F9" s="25" t="n">
         <f aca="false">C10+D10+E10+F8</f>
-        <v>7.18</v>
+        <v>7.29</v>
       </c>
       <c r="G9" s="27" t="n">
         <f aca="false">C10+D10+E10+F10+G8</f>
-        <v>10.18</v>
+        <v>10.29</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="12" t="n">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="J9" s="12" t="n">
         <f aca="false">SUM(C10:G10)</f>
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C10" s="24" t="n">
         <f aca="false">'Ciclo 1'!Q9</f>
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="D10" s="25" t="n">
         <f aca="false">'Ciclo 2'!Q9</f>
@@ -1596,7 +1596,7 @@
   <dimension ref="B1:Q52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="Q3" s="64" t="n">
         <f aca="false">SUM(G3:G395)+Q2</f>
-        <v>4.18</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
-        <v>4.18</v>
+        <v>4.29</v>
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
-        <v>0.393333333333334</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="71"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
-        <v>0.393333333333334</v>
+        <v>0.43</v>
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I395)</f>
-        <v>-0.288925340471963</v>
+        <v>-2.44445472639137</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5-'Ciclo 2'!Q2)</f>
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2139,14 +2139,16 @@
         <f aca="false">D12*J12</f>
         <v>0.17791585206176</v>
       </c>
-      <c r="G12" s="58"/>
+      <c r="G12" s="58" t="n">
+        <v>0.5</v>
+      </c>
       <c r="H12" s="67" t="n">
         <f aca="false">IF(G12=0,,G12/C12)</f>
-        <v>0</v>
+        <v>0.119617224880383</v>
       </c>
       <c r="I12" s="68" t="n">
         <f aca="false">IF(G12=0,,G12-F12)</f>
-        <v>0</v>
+        <v>0.32208414793824</v>
       </c>
       <c r="J12" s="61" t="n">
         <f aca="false">J11*(1-Diretrizes!C$5)</f>
@@ -2169,7 +2171,7 @@
       </c>
       <c r="C13" s="65" t="n">
         <f aca="false">IF(G12&lt;&gt;0,C12+G12,)</f>
-        <v>0</v>
+        <v>4.68</v>
       </c>
       <c r="D13" s="66" t="n">
         <f aca="false">D12*(1+J12)</f>
@@ -2177,20 +2179,22 @@
       </c>
       <c r="E13" s="65" t="n">
         <f aca="false">C13*J13</f>
-        <v>0</v>
+        <v>0.181661131280406</v>
       </c>
       <c r="F13" s="66" t="n">
         <f aca="false">D13*J13</f>
         <v>0.180374023058989</v>
       </c>
-      <c r="G13" s="58"/>
+      <c r="G13" s="58" t="n">
+        <v>0.22</v>
+      </c>
       <c r="H13" s="67" t="n">
         <f aca="false">IF(G13=0,,G13/C13)</f>
-        <v>0</v>
+        <v>0.047008547008547</v>
       </c>
       <c r="I13" s="68" t="n">
         <f aca="false">IF(G13=0,,G13-F13)</f>
-        <v>0</v>
+        <v>0.039625976941011</v>
       </c>
       <c r="J13" s="61" t="n">
         <f aca="false">J12*(1-Diretrizes!C$5)</f>
@@ -2213,7 +2217,7 @@
       </c>
       <c r="C14" s="65" t="n">
         <f aca="false">IF(G13&lt;&gt;0,C13+G13,)</f>
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="D14" s="66" t="n">
         <f aca="false">D13*(1+J13)</f>
@@ -2221,20 +2225,22 @@
       </c>
       <c r="E14" s="65" t="n">
         <f aca="false">C14*J14</f>
-        <v>0</v>
+        <v>0.185445738182081</v>
       </c>
       <c r="F14" s="66" t="n">
         <f aca="false">D14*J14</f>
         <v>0.182691120208034</v>
       </c>
-      <c r="G14" s="58"/>
+      <c r="G14" s="58" t="n">
+        <v>-2.71</v>
+      </c>
       <c r="H14" s="67" t="n">
         <f aca="false">IF(G14=0,,G14/C14)</f>
-        <v>0</v>
+        <v>-0.553061224489796</v>
       </c>
       <c r="I14" s="68" t="n">
         <f aca="false">IF(G14=0,,G14-F14)</f>
-        <v>0</v>
+        <v>-2.89269112020803</v>
       </c>
       <c r="J14" s="61" t="n">
         <f aca="false">J13*(1-Diretrizes!C$5)</f>
@@ -2257,7 +2263,7 @@
       </c>
       <c r="C15" s="65" t="n">
         <f aca="false">IF(G14&lt;&gt;0,C14+G14,)</f>
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="D15" s="66" t="n">
         <f aca="false">D14*(1+J14)</f>
@@ -2265,20 +2271,22 @@
       </c>
       <c r="E15" s="65" t="n">
         <f aca="false">C15*J15</f>
-        <v>0</v>
+        <v>0.0808108188680184</v>
       </c>
       <c r="F15" s="66" t="n">
         <f aca="false">D15*J15</f>
         <v>0.18486512942837</v>
       </c>
-      <c r="G15" s="58"/>
+      <c r="G15" s="58" t="n">
+        <v>0.15</v>
+      </c>
       <c r="H15" s="67" t="n">
         <f aca="false">IF(G15=0,,G15/C15)</f>
-        <v>0</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="I15" s="68" t="n">
         <f aca="false">IF(G15=0,,G15-F15)</f>
-        <v>0</v>
+        <v>-0.03486512942837</v>
       </c>
       <c r="J15" s="61" t="n">
         <f aca="false">J14*(1-Diretrizes!C$5)</f>
@@ -2300,7 +2308,7 @@
       </c>
       <c r="C16" s="65" t="n">
         <f aca="false">IF(G15&lt;&gt;0,C15+G15,)</f>
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="D16" s="66" t="n">
         <f aca="false">D15*(1+J15)</f>
@@ -2308,20 +2316,22 @@
       </c>
       <c r="E16" s="65" t="n">
         <f aca="false">C16*J16</f>
-        <v>0</v>
+        <v>0.0841871613001751</v>
       </c>
       <c r="F16" s="66" t="n">
         <f aca="false">D16*J16</f>
         <v>0.186894471478971</v>
       </c>
-      <c r="G16" s="58"/>
+      <c r="G16" s="58" t="n">
+        <v>0.85</v>
+      </c>
       <c r="H16" s="67" t="n">
         <f aca="false">IF(G16=0,,G16/C16)</f>
-        <v>0</v>
+        <v>0.363247863247863</v>
       </c>
       <c r="I16" s="68" t="n">
         <f aca="false">IF(G16=0,,G16-F16)</f>
-        <v>0</v>
+        <v>0.663105528521029</v>
       </c>
       <c r="J16" s="61" t="n">
         <f aca="false">J15*(1-Diretrizes!C$5)</f>
@@ -2344,7 +2354,7 @@
       </c>
       <c r="C17" s="65" t="n">
         <f aca="false">IF(G16&lt;&gt;0,C16+G16,)</f>
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="D17" s="66" t="n">
         <f aca="false">D16*(1+J16)</f>
@@ -2352,22 +2362,22 @@
       </c>
       <c r="E17" s="65" t="n">
         <f aca="false">C17*J17</f>
-        <v>0</v>
+        <v>0.111898768561483</v>
       </c>
       <c r="F17" s="66" t="n">
         <f aca="false">D17*J17</f>
         <v>0.188777990948876</v>
       </c>
       <c r="G17" s="58" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H17" s="67" t="n">
         <f aca="false">IF(G17=0,,G17/C17)</f>
-        <v>0</v>
+        <v>0.219435736677116</v>
       </c>
       <c r="I17" s="68" t="n">
         <f aca="false">IF(G17=0,,G17-F17)</f>
-        <v>0</v>
+        <v>0.511222009051124</v>
       </c>
       <c r="J17" s="61" t="n">
         <f aca="false">J16*(1-Diretrizes!C$5)</f>
@@ -2390,7 +2400,7 @@
       </c>
       <c r="C18" s="65" t="n">
         <f aca="false">IF(G17&lt;&gt;0,C17+G17,)</f>
-        <v>0</v>
+        <v>3.89</v>
       </c>
       <c r="D18" s="66" t="n">
         <f aca="false">D17*(1+J17)</f>
@@ -2398,22 +2408,22 @@
       </c>
       <c r="E18" s="65" t="n">
         <f aca="false">C18*J18</f>
-        <v>0</v>
+        <v>0.133042023342183</v>
       </c>
       <c r="F18" s="66" t="n">
         <f aca="false">D18*J18</f>
         <v>0.190514943714566</v>
       </c>
       <c r="G18" s="58" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="H18" s="67" t="n">
         <f aca="false">IF(G18=0,,G18/C18)</f>
-        <v>0</v>
+        <v>0.0231362467866324</v>
       </c>
       <c r="I18" s="68" t="n">
         <f aca="false">IF(G18=0,,G18-F18)</f>
-        <v>0</v>
+        <v>-0.100514943714566</v>
       </c>
       <c r="J18" s="61" t="n">
         <f aca="false">J17*(1-Diretrizes!C$5)</f>
@@ -2436,7 +2446,7 @@
       </c>
       <c r="C19" s="65" t="n">
         <f aca="false">IF(G18&lt;&gt;0,C18+G18,)</f>
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="D19" s="66" t="n">
         <f aca="false">D18*(1+J18)</f>
@@ -2444,22 +2454,22 @@
       </c>
       <c r="E19" s="65" t="n">
         <f aca="false">C19*J19</f>
-        <v>0</v>
+        <v>0.13271711351654</v>
       </c>
       <c r="F19" s="66" t="n">
         <f aca="false">D19*J19</f>
         <v>0.19210498303918</v>
       </c>
       <c r="G19" s="58" t="n">
-        <v>0</v>
+        <v>-0.07</v>
       </c>
       <c r="H19" s="67" t="n">
         <f aca="false">IF(G19=0,,G19/C19)</f>
-        <v>0</v>
+        <v>-0.0175879396984925</v>
       </c>
       <c r="I19" s="68" t="n">
         <f aca="false">IF(G19=0,,G19-F19)</f>
-        <v>0</v>
+        <v>-0.26210498303918</v>
       </c>
       <c r="J19" s="61" t="n">
         <f aca="false">J18*(1-Diretrizes!C$5)</f>
@@ -2482,7 +2492,7 @@
       </c>
       <c r="C20" s="65" t="n">
         <f aca="false">IF(G19&lt;&gt;0,C19+G19,)</f>
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="D20" s="66" t="n">
         <f aca="false">D19*(1+J19)</f>
@@ -2490,22 +2500,22 @@
       </c>
       <c r="E20" s="65" t="n">
         <f aca="false">C20*J20</f>
-        <v>0</v>
+        <v>0.127123320603877</v>
       </c>
       <c r="F20" s="66" t="n">
         <f aca="false">D20*J20</f>
         <v>0.193548144485832</v>
       </c>
       <c r="G20" s="58" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="H20" s="67" t="n">
         <f aca="false">IF(G20=0,,G20/C20)</f>
-        <v>0</v>
+        <v>0.010230179028133</v>
       </c>
       <c r="I20" s="68" t="n">
         <f aca="false">IF(G20=0,,G20-F20)</f>
-        <v>0</v>
+        <v>-0.153548144485832</v>
       </c>
       <c r="J20" s="61" t="n">
         <f aca="false">J19*(1-Diretrizes!C$5)</f>
@@ -2528,7 +2538,7 @@
       </c>
       <c r="C21" s="65" t="n">
         <f aca="false">IF(G20&lt;&gt;0,C20+G20,)</f>
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="D21" s="66" t="n">
         <f aca="false">D20*(1+J20)</f>
@@ -2536,22 +2546,22 @@
       </c>
       <c r="E21" s="65" t="n">
         <f aca="false">C21*J21</f>
-        <v>0</v>
+        <v>0.125213219558998</v>
       </c>
       <c r="F21" s="66" t="n">
         <f aca="false">D21*J21</f>
         <v>0.194844829813115</v>
       </c>
       <c r="G21" s="58" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="H21" s="67" t="n">
         <f aca="false">IF(G21=0,,G21/C21)</f>
-        <v>0</v>
+        <v>0.156962025316456</v>
       </c>
       <c r="I21" s="68" t="n">
         <f aca="false">IF(G21=0,,G21-F21)</f>
-        <v>0</v>
+        <v>0.425155170186885</v>
       </c>
       <c r="J21" s="61" t="n">
         <f aca="false">J20*(1-Diretrizes!C$5)</f>
@@ -2574,7 +2584,7 @@
       </c>
       <c r="C22" s="65" t="n">
         <f aca="false">IF(G21&lt;&gt;0,C21+G21,)</f>
-        <v>0</v>
+        <v>4.57</v>
       </c>
       <c r="D22" s="66" t="n">
         <f aca="false">D21*(1+J21)</f>
@@ -2582,22 +2592,22 @@
       </c>
       <c r="E22" s="65" t="n">
         <f aca="false">C22*J22</f>
-        <v>0</v>
+        <v>0.141245266594938</v>
       </c>
       <c r="F22" s="66" t="n">
         <f aca="false">D22*J22</f>
         <v>0.19599579001562</v>
       </c>
       <c r="G22" s="58" t="n">
-        <v>0</v>
+        <v>-0.59</v>
       </c>
       <c r="H22" s="67" t="n">
         <f aca="false">IF(G22=0,,G22/C22)</f>
-        <v>0</v>
+        <v>-0.12910284463895</v>
       </c>
       <c r="I22" s="68" t="n">
         <f aca="false">IF(G22=0,,G22-F22)</f>
-        <v>0</v>
+        <v>-0.78599579001562</v>
       </c>
       <c r="J22" s="61" t="n">
         <f aca="false">J21*(1-Diretrizes!C$5)</f>
@@ -2620,7 +2630,7 @@
       </c>
       <c r="C23" s="65" t="n">
         <f aca="false">IF(G22&lt;&gt;0,C22+G22,)</f>
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="D23" s="66" t="n">
         <f aca="false">D22*(1+J22)</f>
@@ -2628,22 +2638,22 @@
       </c>
       <c r="E23" s="65" t="n">
         <f aca="false">C23*J23</f>
-        <v>0</v>
+        <v>0.119934848363601</v>
       </c>
       <c r="F23" s="66" t="n">
         <f aca="false">D23*J23</f>
         <v>0.197002107666091</v>
       </c>
       <c r="G23" s="58" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="H23" s="67" t="n">
         <f aca="false">IF(G23=0,,G23/C23)</f>
-        <v>0</v>
+        <v>0.0778894472361809</v>
       </c>
       <c r="I23" s="68" t="n">
         <f aca="false">IF(G23=0,,G23-F23)</f>
-        <v>0</v>
+        <v>0.112997892333909</v>
       </c>
       <c r="J23" s="61" t="n">
         <f aca="false">J22*(1-Diretrizes!C$5)</f>
@@ -2666,7 +2676,7 @@
       </c>
       <c r="C24" s="65" t="n">
         <f aca="false">IF(G23&lt;&gt;0,C23+G23,)</f>
-        <v>0</v>
+        <v>4.29</v>
       </c>
       <c r="D24" s="66" t="n">
         <f aca="false">D23*(1+J23)</f>
@@ -2674,7 +2684,7 @@
       </c>
       <c r="E24" s="65" t="n">
         <f aca="false">C24*J24</f>
-        <v>0</v>
+        <v>0.126044594721822</v>
       </c>
       <c r="F24" s="66" t="n">
         <f aca="false">D24*J24</f>
